--- a/nuno-dataset/test-oxigen-01/content/results/metrics_11_9.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_11_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,249 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>model_11_9_5</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7007846717949489</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.462225904875495</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-0.1312398773988326</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.20869435708999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3311431705951691</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2396810352802277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.557208299636841</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.8596953749656677</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7072943650870807</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.997587712560451</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05136682605418941</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.08115956906394528</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3239388763904572</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2917948663234711</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.305841207504272</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7689851522445679</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_7</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7188233910103827</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.336244422466266</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.09751214380254325</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1688549198649807</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3111796379089355</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2274175733327866</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.510780453681946</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.8313592672348022</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_6</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.722536487268424</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.314859932218669</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.07463142814022206</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.1464514933075842</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.3070703446865082</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.2253359407186508</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.479284048080444</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8154245615005493</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7309833225761887</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.648607393725317</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1355280920293038</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.02076456883737154</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.297722190618515</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2578240036964417</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.189988851547241</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6964905261993408</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8308574778318611</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1803146461532472</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.677948083577345</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6211690073908442</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1871909350156784</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1148956343531609</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4433205723762512</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2694471776485443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>model_11_9_0</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.8502933473538998</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7154428173459924</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9481175064129008</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.8545242209176659</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1656811386346817</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2663420438766479</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.07573150098323822</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.1766431331634521</v>
+      <c r="B8" t="n">
+        <v>0.8652791189718037</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6072262660691303</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9382502808766907</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9153023033942906</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1490963250398636</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03823386132717133</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.08500158041715622</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.06024204194545746</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_11_9_1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8692609953330096</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5367574847639057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.889064612573792</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8654010506304206</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1446895599365234</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.04509352147579193</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.152708113193512</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.09573478251695633</v>
       </c>
     </row>
   </sheetData>
